--- a/findata_tietoluvat.xlsx
+++ b/findata_tietoluvat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarbruck/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarbruck/OneDrive - University of Helsinki/Tutkimus/Projekteja/Findata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C411F6-AADC-E944-8895-3BC3095C4BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D01D61-EDD0-B445-A501-99EEAAFB3204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16000" xr2:uid="{86D67D67-3C41-7D46-9980-A7D7843AD978}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Vuosi</t>
   </si>
   <si>
-    <t>Osakeyhtiö</t>
-  </si>
-  <si>
     <t>Kuukausia</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Julkinen/Laitos</t>
+  </si>
+  <si>
+    <t>Kaupallinen</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,16 +427,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
